--- a/ems/src/main/webapp/excel/template/工资汇总模板表.xlsx
+++ b/ems/src/main/webapp/excel/template/工资汇总模板表.xlsx
@@ -120,7 +120,7 @@
 }</t>
   </si>
   <si>
-    <t>${item.payTaxes
+    <t>${item.payTaxesString
 }</t>
   </si>
   <si>

--- a/ems/src/main/webapp/excel/template/工资汇总模板表.xlsx
+++ b/ems/src/main/webapp/excel/template/工资汇总模板表.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>工 人 工 资 汇 总 表</t>
   </si>
@@ -44,16 +44,19 @@
     <t>班组</t>
   </si>
   <si>
-    <t>日工资</t>
-  </si>
-  <si>
-    <t>日社保补贴</t>
-  </si>
-  <si>
-    <t>日住房补贴</t>
-  </si>
-  <si>
-    <t>日高温津贴</t>
+    <t>平均工作天数</t>
+  </si>
+  <si>
+    <t>日工资小计</t>
+  </si>
+  <si>
+    <t>日社保补贴小计</t>
+  </si>
+  <si>
+    <t>日住房补贴小计</t>
+  </si>
+  <si>
+    <t>日高温津贴小计</t>
   </si>
   <si>
     <t>其他收入</t>
@@ -89,47 +92,40 @@
     <t>${item.groupName}</t>
   </si>
   <si>
-    <t>${item.dailySalary}</t>
-  </si>
-  <si>
-    <t>${item.socialSecurityAllowance
-}</t>
-  </si>
-  <si>
-    <t>${item.houseFundAllowance
-}</t>
-  </si>
-  <si>
-    <t>${item.hotAllowance
-}</t>
-  </si>
-  <si>
-    <t>${item.otherIncome
-}</t>
-  </si>
-  <si>
-    <t>${item.payableSalary
-}</t>
-  </si>
-  <si>
-    <t>${item.personalSocialSecurity
-}</t>
-  </si>
-  <si>
-    <t>${item.personalHouseFund
-}</t>
-  </si>
-  <si>
-    <t>${item.payTaxesString
-}</t>
-  </si>
-  <si>
-    <t>${item.otherDeduction
-}</t>
-  </si>
-  <si>
-    <t>${item.realSalary
-}</t>
+    <t>${item.attendanceDays}</t>
+  </si>
+  <si>
+    <t>${item.totalDailySalary}</t>
+  </si>
+  <si>
+    <t>${item.totalSocialSecurityAllowance}</t>
+  </si>
+  <si>
+    <t>${item.totalHouseFundAllowance}</t>
+  </si>
+  <si>
+    <t>${item.totalHotAllowance}</t>
+  </si>
+  <si>
+    <t>${item.otherIncome}</t>
+  </si>
+  <si>
+    <t>${item.payableSalary}</t>
+  </si>
+  <si>
+    <t>${item.personalSocialSecurity}</t>
+  </si>
+  <si>
+    <t>${item.personalHouseFund}</t>
+  </si>
+  <si>
+    <t>${item.payTaxesString}</t>
+  </si>
+  <si>
+    <t>${item.otherDeduction}</t>
+  </si>
+  <si>
+    <t>${item.realSalary}</t>
   </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
@@ -173,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -259,6 +255,21 @@
     <border>
       <left>
         <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -290,8 +301,8 @@
       <left>
         <color indexed="8"/>
       </left>
-      <right style="medium">
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -302,6 +313,21 @@
       <diagonal/>
     </border>
     <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -479,23 +505,20 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -503,25 +526,28 @@
     <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,6 +569,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="7fa7a7a7"/>
+      <rgbColor rgb="7faaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1616,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1624,9 +1651,9 @@
   <cols>
     <col min="1" max="1" width="4.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="13" width="16.6719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="14" width="16.6719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5" style="1" customWidth="1"/>
+    <col min="16" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.5" customHeight="1">
@@ -1645,16 +1672,17 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" ht="24.5" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="7"/>
+      <c r="E2" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" t="s" s="11">
@@ -1663,131 +1691,140 @@
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" ht="24.5" customHeight="1">
-      <c r="A3" t="s" s="16">
+      <c r="A3" t="s" s="17">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="17">
+      <c r="B3" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="17">
+      <c r="C3" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D3" t="s" s="17">
+      <c r="D3" t="s" s="18">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="17">
+      <c r="E3" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="F3" t="s" s="17">
+      <c r="F3" t="s" s="18">
         <v>8</v>
       </c>
-      <c r="G3" t="s" s="17">
+      <c r="G3" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="H3" t="s" s="17">
+      <c r="H3" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="I3" t="s" s="17">
+      <c r="I3" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="J3" t="s" s="17">
+      <c r="J3" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="K3" t="s" s="17">
+      <c r="K3" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="L3" t="s" s="17">
+      <c r="L3" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="M3" t="s" s="17">
+      <c r="M3" t="s" s="18">
         <v>15</v>
       </c>
       <c r="N3" t="s" s="18">
         <v>16</v>
       </c>
+      <c r="O3" t="s" s="19">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" ht="24.5" customHeight="1">
-      <c r="A4" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="A4" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="21"/>
+      <c r="O4" s="22"/>
     </row>
     <row r="5" ht="24.5" customHeight="1">
-      <c r="A5" t="s" s="19">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="22">
+      <c r="A5" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="22">
+      <c r="B5" t="s" s="23">
         <v>20</v>
       </c>
+      <c r="C5" t="s" s="23">
+        <v>21</v>
+      </c>
       <c r="D5" t="s" s="23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s" s="23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s" s="23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s" s="23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s" s="23">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s" s="23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s" s="23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="23">
-        <v>30</v>
-      </c>
-      <c r="N5" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="N5" t="s" s="23">
+        <v>32</v>
+      </c>
+      <c r="O5" s="22"/>
     </row>
     <row r="6" ht="24.5" customHeight="1">
-      <c r="A6" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="A6" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" ht="24.5" customHeight="1">
       <c r="A7" s="24"/>
@@ -1803,12 +1840,13 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
